--- a/2022NOTES/大数据分析/BasicOperation/2.xlsx
+++ b/2022NOTES/大数据分析/BasicOperation/2.xlsx
@@ -14,9 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>标准差汇总</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>军训</t>
+  </si>
+  <si>
+    <t>数分</t>
+  </si>
+  <si>
+    <t>高代</t>
+  </si>
+  <si>
+    <t>解几</t>
+  </si>
+  <si>
+    <t>不及格人数</t>
+  </si>
+  <si>
+    <t>平均分</t>
+  </si>
+  <si>
+    <t>标准差</t>
   </si>
 </sst>
 </file>
@@ -374,175 +398,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>3.047991412655229</v>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>3.118991576370607</v>
+        <v>72.55</v>
+      </c>
+      <c r="C3">
+        <v>65.45</v>
+      </c>
+      <c r="D3">
+        <v>79.65000000000001</v>
+      </c>
+      <c r="E3">
+        <v>62.85</v>
+      </c>
+      <c r="F3">
+        <v>62.15</v>
+      </c>
+      <c r="G3">
+        <v>66.09999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3.879390225601821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3.889282105357679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>3.941337680502053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3.113274046565991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3.972811763515021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>4.281077590152811</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3.970722833580963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>3.158484986241497</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4.423235195977465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>4.594816017506896</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3.674782666485976</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4.613179701650177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4.624758898853052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4.651054148870337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>4.967987855701484</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>3.381602167736399</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4.742692865676426</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>5.1467677007043</v>
+        <v>7.178000014664692</v>
+      </c>
+      <c r="C4">
+        <v>25.11966099335444</v>
+      </c>
+      <c r="D4">
+        <v>19.58591061801422</v>
+      </c>
+      <c r="E4">
+        <v>9.5821929146011</v>
+      </c>
+      <c r="F4">
+        <v>15.14239430417654</v>
+      </c>
+      <c r="G4">
+        <v>18.84814663511899</v>
       </c>
     </row>
   </sheetData>
